--- a/APICase/PressureTestCase.xlsx
+++ b/APICase/PressureTestCase.xlsx
@@ -60,12 +60,12 @@
   <si>
     <t>{
  "page":1,
- "pageSize":9999,
+ "pageSize":"&amp;pageSize",
  "session_3rd":"80A2497D3B3D9061558A45C37D150301",
  "openId":"3",
  "storeId":"~storeId",
  "companyId":"~companyId",
- "systemType":"mall"
+ "name":"&amp;name"
 }</t>
   </si>
   <si>
@@ -96,10 +96,10 @@
 }</t>
   </si>
   <si>
-    <t>"code": 0,"msg": "操作成功!","${openId}=oBF_i5KS7GZNbRXAiYyDOjFwL_8s"</t>
-  </si>
-  <si>
-    <t>without</t>
+    <t>"code": 0,"msg": "操作成功!","${storeId}&gt;464"</t>
+  </si>
+  <si>
+    <t>/Users/hongnaiwu/MyProject/InterfaceFrame/Config/pressure_test_two.txt</t>
   </si>
 </sst>
 </file>
@@ -107,9 +107,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -130,7 +130,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,7 +174,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -153,6 +183,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,37 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -215,6 +221,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -222,59 +236,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,181 +295,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +486,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -493,16 +502,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,15 +536,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,26 +566,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,148 +585,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1064,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>

--- a/APICase/PressureTestCase.xlsx
+++ b/APICase/PressureTestCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>No.</t>
   </si>
@@ -40,7 +40,13 @@
     <t>Check Point</t>
   </si>
   <si>
-    <t>pressure_test_file</t>
+    <t>Pressure Test File</t>
+  </si>
+  <si>
+    <t>Concurrent Number</t>
+  </si>
+  <si>
+    <t>All Request Number</t>
   </si>
   <si>
     <t>Active</t>
@@ -108,9 +114,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -143,24 +149,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,6 +166,69 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -182,7 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,11 +256,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,70 +279,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,181 +301,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,69 +494,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,147 +523,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1059,12 +1065,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -1077,11 +1083,13 @@
     <col min="6" max="6" width="28.875" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="17.9423076923077" customWidth="1"/>
-    <col min="9" max="9" width="16.8173076923077" customWidth="1"/>
-    <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="18.1153846153846" customWidth="1"/>
+    <col min="10" max="10" width="20.0288461538462" customWidth="1"/>
+    <col min="11" max="11" width="20.6730769230769" customWidth="1"/>
+    <col min="12" max="12" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:10">
+    <row r="1" ht="17.6" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,69 +1120,87 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="185" spans="1:10">
+    <row r="2" ht="185" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
+      <c r="L2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" ht="152" spans="1:10">
+    <row r="3" ht="152" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1188,7 +1214,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 G4:G497">
       <formula1>"No,MD5,DES"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 J4:J497">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3 L4:L497">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
